--- a/medicine/Enfance/Charlotte_Gastaut/Charlotte_Gastaut.xlsx
+++ b/medicine/Enfance/Charlotte_Gastaut/Charlotte_Gastaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlotte Gastaut est une illustratrice et auteure française née à Marseille le 7 avril 1974[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlotte Gastaut est une illustratrice et auteure française née à Marseille le 7 avril 1974.
 </t>
         </is>
       </c>
@@ -511,13 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de l’école Penninghen à Paris en 1996, Charlotte Gastaut travaille pour la presse féminine[2] et l'édition jeunesse. Elle illustre notamment des livres pour enfants et, en particulier, des adaptations de contes et de mythologie[3]. Elle publie depuis 1998. Elle a illustré de nombreux titres chez Flammarion, dont plusieurs dans la collection des Classiques du Père Castor, et de nombreux albums dont Poucette ou La Flûte enchantée, mais aussi des romans Castor Poche, comme La Reine des neiges.
-Depuis 2010, elle écrit des ouvrages dont elle est aussi l'illustratrice[3] (Le Grand Voyage de Mademoiselle Prudence ou, en 2016, Copain ?).
-Elle travaille pour la communication et la publicité, pour les marques Fendi, Cacharel, Diptyque, Van Clef et Arpels, Godiva, Hermès[2] ou  L'Occitane[3], ainsi que pour les illustrations de jeux d'activité pour le fabricant Djeco[3]. En 2017, elle lance sa propre marque de foulards en soie[2].
-Vie privée
-Charlotte Gastaut a trois enfants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de l’école Penninghen à Paris en 1996, Charlotte Gastaut travaille pour la presse féminine et l'édition jeunesse. Elle illustre notamment des livres pour enfants et, en particulier, des adaptations de contes et de mythologie. Elle publie depuis 1998. Elle a illustré de nombreux titres chez Flammarion, dont plusieurs dans la collection des Classiques du Père Castor, et de nombreux albums dont Poucette ou La Flûte enchantée, mais aussi des romans Castor Poche, comme La Reine des neiges.
+Depuis 2010, elle écrit des ouvrages dont elle est aussi l'illustratrice (Le Grand Voyage de Mademoiselle Prudence ou, en 2016, Copain ?).
+Elle travaille pour la communication et la publicité, pour les marques Fendi, Cacharel, Diptyque, Van Clef et Arpels, Godiva, Hermès ou  L'Occitane, ainsi que pour les illustrations de jeux d'activité pour le fabricant Djeco. En 2017, elle lance sa propre marque de foulards en soie.
 </t>
         </is>
       </c>
@@ -543,18 +555,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlotte Gastaut a trois enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charlotte_Gastaut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlotte_Gastaut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auteure et illustratrice
-La Grande Lulusion, Diantre ! éditions, 2010  (ISBN 2356340386)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Grande Lulusion, Diantre ! éditions, 2010  (ISBN 2356340386)
 Le Grand Voyage de mademoiselle Prudence, Père Castor, 2010  (ISBN 2081226723)
 Copain ?, Albin Michel, 2016  (ISBN 2226325158)
-Les Saisons à colorier, Père Castor, 2018  (ISBN 978-2-08-141512-6)
-Illustratrice
-Françoise Rachmühl, Héroïnes et héros de la mythologie grecque, Père Castor, 2019  (ISBN 2081439638)
+Les Saisons à colorier, Père Castor, 2018  (ISBN 978-2-08-141512-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charlotte_Gastaut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charlotte_Gastaut</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Françoise Rachmühl, Héroïnes et héros de la mythologie grecque, Père Castor, 2019  (ISBN 2081439638)
 Pierre Coran, Roméo et Juliette, Père Castor, 2019  (ISBN 2081373149)
 Marie Sellier, L'Arbre de Sobo, Père Castor, 2019  (ISBN 2711871142)
 Cécile Benoist, Un arbre, une histoire, Actes Sud Junior  (ISBN 2330111452)
@@ -622,64 +710,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Charlotte_Gastaut</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charlotte_Gastaut</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 :  Romics d'Or[2]
-2019 :  « Mention spéciale » Premio nazionale Nati per Leggere[4] du Salon international du livre (Turin) pour Copain ?</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2018 :  Romics d'Or
+2019 :  « Mention spéciale » Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour Copain ?</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Charlotte_Gastaut</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Charlotte_Gastaut</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Quelques expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux expositions lui ont été consacrées à la galerie Robillard à Paris[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux expositions lui ont été consacrées à la galerie Robillard à Paris.
 </t>
         </is>
       </c>
